--- a/src/main/resources/Book1_Win.xlsx
+++ b/src/main/resources/Book1_Win.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\excel-file-java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC3BE31-E2A3-41D1-A331-DC59A2984C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5A191-6414-4EB3-B08B-6BF7105DCD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{22917978-A5B6-4A49-8415-93B1CB9833F0}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/Book1_Win.xlsx
+++ b/src/main/resources/Book1_Win.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\excel-file-java\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o_dung_quoc.p/Work/excel-file-java/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5A191-6414-4EB3-B08B-6BF7105DCD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F17E2FD-A15A-7C4A-B9A4-092C02B07BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{22917978-A5B6-4A49-8415-93B1CB9833F0}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="25280" windowHeight="16220" xr2:uid="{22917978-A5B6-4A49-8415-93B1CB9833F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,8 +285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5386827" y="284263"/>
-          <a:ext cx="7710945" cy="7065651"/>
+          <a:off x="5662113" y="291537"/>
+          <a:ext cx="8033398" cy="7342033"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -299,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -445,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -597,17 +597,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE5C4CF-A0B4-490B-9677-111E1776AE74}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.69140625" customWidth="1"/>
-    <col min="8" max="9" width="9.23046875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -672,7 +672,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -692,7 +692,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -732,7 +732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
